--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-027 - Penyelia SRM Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-027 - Penyelia SRM Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF126307-BE6F-4D09-BBA6-5B2767ADC239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35224254-99A2-4EEA-9369-4C2E2ACB332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0196" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0011" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -140,9 +140,6 @@
 8. data report excel berhasil terdownload dan dapat dilihat</t>
   </si>
   <si>
-    <t>DGS-211</t>
-  </si>
-  <si>
     <t>Penyelia SRM mengakses menu: Report Menu - Product Holding Ratio - Report</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>SELECT * FROM DigisalesNew..Tbl_Pegawai WHERE SalesTypeId='20' and LastLogin IS NOT NULL</t>
+  </si>
+  <si>
+    <t>SCD0011-027</t>
   </si>
 </sst>
 </file>
@@ -564,14 +564,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="A1:Z2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -678,16 +678,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="11">
         <v>37400</v>
@@ -696,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>15</v>
@@ -718,7 +718,7 @@
         <v>17</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
